--- a/tables/LCZ_UCP_default.xlsx
+++ b/tables/LCZ_UCP_default.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="LCZ_UCP" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="LCZ_UCP_default" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -91,7 +91,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -176,17 +175,17 @@
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.18"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.41"/>
@@ -200,7 +199,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="14.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="13.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="5.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="5.18"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="21" style="0" width="11.52"/>
   </cols>
   <sheetData>
